--- a/Assets/06.Table/SeolPass.xlsx
+++ b/Assets/06.Table/SeolPass.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B9BDF4-E1BC-43A6-969B-D21810D86C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343C123-DBDB-4EF0-BDAB-F6E9CED919E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SeolPass" sheetId="1" r:id="rId1"/>
+    <sheet name="balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -54,12 +55,84 @@
     <t>unlockAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>기존 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 되는 재화 량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸수 배분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1칸당 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천도 복숭아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 지급 되는 재화량 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼 열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +161,15 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +220,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +556,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +606,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>10000000</v>
+        <f>D2*5</f>
+        <v>50000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -520,16 +618,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>10000000000</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>30</v>
+        <f t="shared" ref="F3:F6" si="0">D3*5</f>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -540,16 +639,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3000000</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>3000000</v>
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,16 +660,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>100000000</v>
       </c>
       <c r="E5" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -580,16 +681,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -620,16 +722,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>30</v>
+        <v>10000000</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>30</v>
+        <f>D8*5</f>
+        <v>50000000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,16 +743,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>3000000</v>
+        <v>10000000000</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>3000000</v>
+        <f t="shared" ref="F9:F61" si="1">D9*5</f>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +764,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E10" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -680,16 +785,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>100000000</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -700,16 +806,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>10000000</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>10000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -720,16 +827,18 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <f>D8</f>
+        <v>10000000</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -740,16 +849,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>3000000</v>
+        <f t="shared" ref="D14:D61" si="2">D9</f>
+        <v>10000000000</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>3000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -760,16 +871,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -780,16 +893,18 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E16" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -800,16 +915,18 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
-        <v>10000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -820,16 +937,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>10000000</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -840,16 +959,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>3000000</v>
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>3000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -860,16 +981,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E20" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -880,16 +1003,18 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -899,17 +1024,19 @@
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>15000000</v>
+      <c r="C22" s="1">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -919,17 +1046,19 @@
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2">
-        <v>35</v>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -939,17 +1068,19 @@
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3500000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3500000</v>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -959,17 +1090,19 @@
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2">
-        <v>25</v>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -979,17 +1112,19 @@
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2">
-        <v>400</v>
-      </c>
-      <c r="E26" s="2">
-        <v>20</v>
-      </c>
-      <c r="F26" s="2">
-        <v>400</v>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -999,17 +1134,19 @@
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>15000000</v>
+      <c r="C27" s="1">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1019,17 +1156,19 @@
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2">
-        <v>35</v>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1039,17 +1178,19 @@
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3500000</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3500000</v>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1059,17 +1200,19 @@
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2">
-        <v>25</v>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1079,17 +1222,19 @@
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
-        <v>20</v>
-      </c>
-      <c r="D31" s="2">
-        <v>400</v>
-      </c>
-      <c r="E31" s="2">
-        <v>20</v>
-      </c>
-      <c r="F31" s="2">
-        <v>400</v>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1099,17 +1244,19 @@
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>15000000</v>
+      <c r="C32" s="1">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1119,17 +1266,19 @@
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="2">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" s="2">
-        <v>35</v>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1139,17 +1288,19 @@
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="2">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3500000</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3500000</v>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1159,17 +1310,19 @@
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="2">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2">
-        <v>25</v>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1179,17 +1332,19 @@
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2">
-        <v>400</v>
-      </c>
-      <c r="E36" s="2">
-        <v>20</v>
-      </c>
-      <c r="F36" s="2">
-        <v>400</v>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1199,17 +1354,19 @@
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>15000000</v>
+      <c r="C37" s="1">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E37" s="1">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1219,17 +1376,19 @@
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2">
-        <v>35</v>
-      </c>
-      <c r="E38" s="2">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2">
-        <v>35</v>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1239,17 +1398,19 @@
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="2">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3500000</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3500000</v>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1259,17 +1420,19 @@
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="2">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2">
-        <v>25</v>
-      </c>
-      <c r="E40" s="2">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2">
-        <v>25</v>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1279,17 +1442,19 @@
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
-        <v>20</v>
-      </c>
-      <c r="D41" s="2">
-        <v>400</v>
-      </c>
-      <c r="E41" s="2">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2">
-        <v>400</v>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1300,16 +1465,18 @@
         <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1">
-        <v>20000000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1">
-        <v>20000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1320,16 +1487,18 @@
         <v>42</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>10000000</v>
       </c>
       <c r="E43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1340,16 +1509,18 @@
         <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>4000000</v>
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
       </c>
       <c r="E44" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>4000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1360,16 +1531,18 @@
         <v>44</v>
       </c>
       <c r="C45" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E45" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1380,16 +1553,18 @@
         <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1400,16 +1575,18 @@
         <v>46</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
-        <v>20000000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1">
-        <v>20000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1420,16 +1597,18 @@
         <v>47</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>10000000</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1440,16 +1619,18 @@
         <v>48</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>4000000</v>
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
-        <v>4000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1460,16 +1641,18 @@
         <v>49</v>
       </c>
       <c r="C50" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E50" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1480,16 +1663,18 @@
         <v>50</v>
       </c>
       <c r="C51" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E51" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1500,16 +1685,18 @@
         <v>51</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1">
-        <v>20000000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1">
-        <v>20000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1520,16 +1707,18 @@
         <v>52</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>10000000</v>
       </c>
       <c r="E53" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1540,16 +1729,18 @@
         <v>53</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>4000000</v>
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
       </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>4000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1560,16 +1751,18 @@
         <v>54</v>
       </c>
       <c r="C55" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E55" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1580,16 +1773,18 @@
         <v>55</v>
       </c>
       <c r="C56" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E56" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1600,16 +1795,18 @@
         <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1">
-        <v>20000000</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F57" s="1">
-        <v>20000000</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1620,16 +1817,18 @@
         <v>57</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>10000000</v>
       </c>
       <c r="E58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50000000</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1640,16 +1839,18 @@
         <v>58</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>4000000</v>
+        <f t="shared" si="2"/>
+        <v>10000000000</v>
       </c>
       <c r="E59" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>4000000</v>
+        <f t="shared" si="1"/>
+        <v>50000000000</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1660,16 +1861,18 @@
         <v>59</v>
       </c>
       <c r="C60" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E60" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1680,16 +1883,18 @@
         <v>60</v>
       </c>
       <c r="C61" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>100000000</v>
       </c>
       <c r="E61" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>500000000</v>
       </c>
     </row>
   </sheetData>
@@ -1697,4 +1902,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D02539E-3566-4FF4-B376-66E7C89BB813}">
+  <dimension ref="C4:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>170000000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>170000000</v>
+      </c>
+      <c r="G7" s="6">
+        <f>E7+F7</f>
+        <v>340000000</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>120000000</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="6">
+        <f>(L7/M7)</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6">
+        <v>420</v>
+      </c>
+      <c r="F8" s="6">
+        <v>420</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G11" si="0">E8+F8</f>
+        <v>840</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="6">
+        <v>120000000000</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" ref="N8:N11" si="1">(L8/M8)</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6">
+        <v>42000000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>42000000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>84000000</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6000</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6">
+        <v>300</v>
+      </c>
+      <c r="F10" s="6">
+        <v>300</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1200000000</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4800</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4800</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="J11" s="5">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4400</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6">
+        <f>SUMIF(SeolPass!C:C,J16,SeolPass!D:D)</f>
+        <v>120000000</v>
+      </c>
+      <c r="M16" s="6">
+        <f>SUMIF(SeolPass!E:E,J16,SeolPass!F:F)</f>
+        <v>600000000</v>
+      </c>
+      <c r="N16" s="6">
+        <f>L16+M16</f>
+        <v>720000000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="6">
+        <f>SUMIF(SeolPass!C:C,J17,SeolPass!D:D)</f>
+        <v>120000000000</v>
+      </c>
+      <c r="M17" s="6">
+        <f>SUMIF(SeolPass!E:E,J17,SeolPass!F:F)</f>
+        <v>600000000000</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" ref="N17:N20" si="2">L17+M17</f>
+        <v>720000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="6">
+        <f>SUMIF(SeolPass!C:C,J18,SeolPass!D:D)</f>
+        <v>6000</v>
+      </c>
+      <c r="M18" s="6">
+        <f>SUMIF(SeolPass!E:E,J18,SeolPass!F:F)</f>
+        <v>30000</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6">
+        <f>SUMIF(SeolPass!C:C,J19,SeolPass!D:D)</f>
+        <v>1200000000</v>
+      </c>
+      <c r="M19" s="6">
+        <f>SUMIF(SeolPass!E:E,J19,SeolPass!F:F)</f>
+        <v>6000000000</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>7200000000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="J20" s="5">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="6">
+        <f>SUMIF(SeolPass!C:C,J20,SeolPass!D:D)</f>
+        <v>4400</v>
+      </c>
+      <c r="M20" s="6">
+        <f>SUMIF(SeolPass!E:E,J20,SeolPass!F:F)</f>
+        <v>22000</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
+        <v>26400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K14:L14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>